--- a/byhand/nbg_reo_finished.xlsx
+++ b/byhand/nbg_reo_finished.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\workspace\kfintech\RealEstateAI\byhand\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34235D42-C013-4F02-ACD5-E9ADE21AB42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BE8E752-4815-4073-B85C-16F5DD4BE249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2765,12 +2765,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -2811,7 +2817,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2823,6 +2829,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3127,14 +3137,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="R11" sqref="R11"/>
+      <selection pane="bottomLeft" activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="3" width="8.88671875" style="5"/>
+    <col min="5" max="9" width="8.88671875" style="5"/>
     <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="15.21875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="15.5546875" bestFit="1" customWidth="1"/>
@@ -3142,37 +3154,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="6" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -3219,40 +3231,40 @@
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="5">
         <v>18537</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="5">
         <v>1958</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="5">
         <v>88000</v>
       </c>
       <c r="M2" t="s">
@@ -3298,40 +3310,40 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="A3" s="5" t="s">
         <v>579</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="5" t="s">
         <v>580</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>17455</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="5">
         <v>1997</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="5">
         <v>480000</v>
       </c>
       <c r="M3" t="s">
@@ -3377,40 +3389,40 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="5" t="s">
         <v>227</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>10445</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="5">
         <v>1966</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="5">
         <v>100000</v>
       </c>
       <c r="M4" t="s">
@@ -3456,40 +3468,40 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>19016</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="5">
         <v>2002</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="5">
         <v>286000</v>
       </c>
       <c r="M5" t="s">
@@ -3535,40 +3547,40 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>10446</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J6" t="s">
+      <c r="J6" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>1933</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="5">
         <v>190000</v>
       </c>
       <c r="M6" t="s">
@@ -3614,40 +3626,40 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="5" t="s">
         <v>854</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="5" t="s">
         <v>855</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="5" t="s">
         <v>856</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>56533</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>2007</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="5">
         <v>430000</v>
       </c>
       <c r="M7" t="s">
@@ -3693,40 +3705,40 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="5" t="s">
         <v>517</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>15126</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="J8" t="s">
+      <c r="J8" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="5">
         <v>1987</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="5">
         <v>395000</v>
       </c>
       <c r="M8" t="s">
@@ -3772,40 +3784,40 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="5" t="s">
         <v>881</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>16673</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="5">
         <v>2010</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="5">
         <v>503000</v>
       </c>
       <c r="M9" t="s">
@@ -3851,40 +3863,40 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="A10" s="5" t="s">
         <v>890</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="5" t="s">
         <v>891</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="5" t="s">
         <v>892</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="5" t="s">
         <v>893</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>16231</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J10" t="s">
+      <c r="J10" s="5" t="s">
         <v>894</v>
       </c>
-      <c r="K10" t="s">
+      <c r="K10" s="5" t="s">
         <v>895</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="5">
         <v>52000</v>
       </c>
       <c r="M10" t="s">
@@ -3930,40 +3942,40 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="A11" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="5">
         <v>16674</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="5">
         <v>1992</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="5">
         <v>242000</v>
       </c>
       <c r="M11" t="s">
@@ -4009,40 +4021,40 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="A12" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>18546</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J12" t="s">
+      <c r="J12" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>1966</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>80000</v>
       </c>
       <c r="M12" t="s">
@@ -4088,40 +4100,40 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="A13" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <v>54500</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="J13" t="s">
+      <c r="J13" s="5" t="s">
         <v>619</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="5">
         <v>1999</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="5">
         <v>290000</v>
       </c>
       <c r="M13" t="s">
@@ -4167,40 +4179,40 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <v>17456</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>1958</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="5">
         <v>208000</v>
       </c>
       <c r="M14" t="s">
@@ -4246,40 +4258,40 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="A15" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="5">
         <v>10433</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J15" t="s">
+      <c r="J15" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>1961</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="5">
         <v>75000</v>
       </c>
       <c r="M15" t="s">
@@ -4325,40 +4337,40 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="5">
         <v>12461</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H16" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="J16" t="s">
+      <c r="J16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>1946</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="5">
         <v>55000</v>
       </c>
       <c r="M16" t="s">
@@ -4404,40 +4416,40 @@
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="A17" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="5">
         <v>11854</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J17" t="s">
+      <c r="J17" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <v>1955</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="5">
         <v>770000</v>
       </c>
       <c r="M17" t="s">
@@ -4483,40 +4495,40 @@
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="A18" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="5">
         <v>14561</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I18" t="s">
+      <c r="I18" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J18" t="s">
+      <c r="J18" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="5">
         <v>1972</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="5">
         <v>470000</v>
       </c>
       <c r="M18" t="s">
@@ -4562,40 +4574,40 @@
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="5">
         <v>10440</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H19" t="s">
+      <c r="H19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J19" t="s">
+      <c r="J19" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="5">
         <v>1971</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="5">
         <v>75000</v>
       </c>
       <c r="M19" t="s">
@@ -4641,40 +4653,40 @@
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="5">
         <v>11251</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H20" t="s">
+      <c r="H20" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J20" t="s">
+      <c r="J20" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="5">
         <v>1969</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="5">
         <v>70000</v>
       </c>
       <c r="M20" t="s">
@@ -4720,40 +4732,40 @@
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>17562</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J21" t="s">
+      <c r="J21" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>1967</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>165000</v>
       </c>
       <c r="M21" t="s">
@@ -4799,40 +4811,40 @@
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="5">
         <v>14578</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J22" s="5" t="s">
         <v>471</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>1980</v>
       </c>
-      <c r="L22">
+      <c r="L22" s="5">
         <v>845000</v>
       </c>
       <c r="M22" t="s">
@@ -4878,40 +4890,40 @@
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="5">
         <v>10446</v>
       </c>
-      <c r="G23" t="s">
+      <c r="G23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>1964</v>
       </c>
-      <c r="L23">
+      <c r="L23" s="5">
         <v>65000</v>
       </c>
       <c r="M23" t="s">
@@ -4957,40 +4969,40 @@
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="5">
         <v>10446</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J24" t="s">
+      <c r="J24" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="K24">
+      <c r="K24" s="5">
         <v>1955</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="5">
         <v>71000</v>
       </c>
       <c r="M24" t="s">
@@ -5036,40 +5048,40 @@
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="5">
         <v>10440</v>
       </c>
-      <c r="G25" t="s">
+      <c r="G25" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="J25" t="s">
+      <c r="J25" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="K25">
+      <c r="K25" s="5">
         <v>1971</v>
       </c>
-      <c r="L25">
+      <c r="L25" s="5">
         <v>70000</v>
       </c>
       <c r="M25" t="s">
@@ -5115,40 +5127,40 @@
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="5">
         <v>10446</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G26" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J26" t="s">
+      <c r="J26" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K26">
+      <c r="K26" s="5">
         <v>1965</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="5">
         <v>57000</v>
       </c>
       <c r="M26" t="s">
@@ -5194,40 +5206,40 @@
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C27" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="5">
         <v>11257</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G27" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H27" t="s">
+      <c r="H27" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K27">
+      <c r="K27" s="5">
         <v>1954</v>
       </c>
-      <c r="L27">
+      <c r="L27" s="5">
         <v>137000</v>
       </c>
       <c r="M27" t="s">
@@ -5273,40 +5285,40 @@
       </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="5">
         <v>10446</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J28" t="s">
+      <c r="J28" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <v>1960</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="5">
         <v>53000</v>
       </c>
       <c r="M28" t="s">
@@ -5352,40 +5364,40 @@
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="5">
         <v>14564</v>
       </c>
-      <c r="G29" t="s">
+      <c r="G29" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H29" t="s">
+      <c r="H29" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J29" t="s">
+      <c r="J29" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K29">
+      <c r="K29" s="5">
         <v>2004</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="5">
         <v>460000</v>
       </c>
       <c r="M29" t="s">
@@ -5431,40 +5443,40 @@
       </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="5">
         <v>11251</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G30" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H30" t="s">
+      <c r="H30" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J30" t="s">
+      <c r="J30" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K30">
+      <c r="K30" s="5">
         <v>1954</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="5">
         <v>75000</v>
       </c>
       <c r="M30" t="s">
@@ -5510,40 +5522,40 @@
       </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="5">
         <v>74100</v>
       </c>
-      <c r="G31" t="s">
+      <c r="G31" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H31" t="s">
+      <c r="H31" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J31" t="s">
+      <c r="J31" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="K31">
+      <c r="K31" s="5">
         <v>1973</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="5">
         <v>69000</v>
       </c>
       <c r="N31">
@@ -5586,40 +5598,40 @@
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="5">
         <v>13341</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G32" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H32" t="s">
+      <c r="H32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J32" t="s">
+      <c r="J32" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="K32">
+      <c r="K32" s="5">
         <v>1990</v>
       </c>
-      <c r="L32">
+      <c r="L32" s="5">
         <v>210000</v>
       </c>
       <c r="M32" t="s">
@@ -5665,40 +5677,40 @@
       </c>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="5" t="s">
         <v>699</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="5" t="s">
         <v>700</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="5" t="s">
         <v>701</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="5" t="s">
         <v>702</v>
       </c>
-      <c r="F33">
+      <c r="F33" s="5">
         <v>14564</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J33" t="s">
+      <c r="J33" s="5" t="s">
         <v>703</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <v>2004</v>
       </c>
-      <c r="L33">
+      <c r="L33" s="5">
         <v>485000</v>
       </c>
       <c r="M33" t="s">
@@ -5744,40 +5756,40 @@
       </c>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="A34" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>11527</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <v>1963</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <v>114000</v>
       </c>
       <c r="M34" t="s">
@@ -5823,40 +5835,40 @@
       </c>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="A35" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="5" t="s">
         <v>882</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D35" s="5" t="s">
         <v>889</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="5" t="s">
         <v>884</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="5">
         <v>16673</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H35" t="s">
+      <c r="H35" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="J35" t="s">
+      <c r="J35" s="5" t="s">
         <v>885</v>
       </c>
-      <c r="K35">
+      <c r="K35" s="5">
         <v>2010</v>
       </c>
-      <c r="L35">
+      <c r="L35" s="5">
         <v>1097000</v>
       </c>
       <c r="M35" t="s">
@@ -5902,40 +5914,40 @@
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="A36" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D36" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F36">
+      <c r="F36" s="5">
         <v>10432</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G36" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H36" t="s">
+      <c r="H36" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J36" t="s">
+      <c r="J36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="K36">
+      <c r="K36" s="5">
         <v>1959</v>
       </c>
-      <c r="L36">
+      <c r="L36" s="5">
         <v>104000</v>
       </c>
       <c r="M36" t="s">
@@ -5981,40 +5993,40 @@
       </c>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="A37" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D37" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E37" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <v>19200</v>
       </c>
-      <c r="G37" t="s">
+      <c r="G37" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H37" t="s">
+      <c r="H37" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J37" t="s">
+      <c r="J37" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>1997</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <v>123000</v>
       </c>
       <c r="M37" t="s">
@@ -6060,40 +6072,40 @@
       </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="A38" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C38" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D38" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="F38">
+      <c r="F38" s="5">
         <v>10446</v>
       </c>
-      <c r="G38" t="s">
+      <c r="G38" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H38" t="s">
+      <c r="H38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J38" t="s">
+      <c r="J38" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="K38">
+      <c r="K38" s="5">
         <v>1964</v>
       </c>
-      <c r="L38">
+      <c r="L38" s="5">
         <v>92000</v>
       </c>
       <c r="M38" t="s">
@@ -6139,37 +6151,38 @@
       </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+      <c r="A39" s="5" t="s">
         <v>847</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="5" t="s">
         <v>848</v>
       </c>
-      <c r="E39" t="s">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5" t="s">
         <v>849</v>
       </c>
-      <c r="F39">
+      <c r="F39" s="5">
         <v>15354</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G39" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="5" t="s">
         <v>850</v>
       </c>
-      <c r="J39" t="s">
+      <c r="J39" s="5" t="s">
         <v>851</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <v>2007</v>
       </c>
-      <c r="L39">
+      <c r="L39" s="5">
         <v>625900</v>
       </c>
       <c r="M39" t="s">
@@ -6215,40 +6228,40 @@
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+      <c r="A40" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C40" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D40" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="F40">
+      <c r="F40" s="5">
         <v>16675</v>
       </c>
-      <c r="G40" t="s">
+      <c r="G40" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H40" t="s">
+      <c r="H40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J40" t="s">
+      <c r="J40" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="K40">
+      <c r="K40" s="5">
         <v>2000</v>
       </c>
-      <c r="L40">
+      <c r="L40" s="5">
         <v>950000</v>
       </c>
       <c r="M40" t="s">
@@ -6294,40 +6307,40 @@
       </c>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+      <c r="A41" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D41" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E41" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F41">
+      <c r="F41" s="5">
         <v>18544</v>
       </c>
-      <c r="G41" t="s">
+      <c r="G41" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H41" t="s">
+      <c r="H41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J41" t="s">
+      <c r="J41" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="K41">
+      <c r="K41" s="5">
         <v>1955</v>
       </c>
-      <c r="L41">
+      <c r="L41" s="5">
         <v>100000</v>
       </c>
       <c r="M41" t="s">
@@ -6373,40 +6386,40 @@
       </c>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="A42" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C42" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="D42" t="s">
+      <c r="D42" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E42" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F42">
+      <c r="F42" s="5">
         <v>54453</v>
       </c>
-      <c r="G42" t="s">
+      <c r="G42" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H42" t="s">
+      <c r="H42" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J42" t="s">
+      <c r="J42" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="K42">
+      <c r="K42" s="5">
         <v>1969</v>
       </c>
-      <c r="L42">
+      <c r="L42" s="5">
         <v>86000</v>
       </c>
       <c r="M42" t="s">
@@ -6452,40 +6465,40 @@
       </c>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="A43" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="D43" t="s">
+      <c r="D43" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E43" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="F43">
+      <c r="F43" s="5">
         <v>12136</v>
       </c>
-      <c r="G43" t="s">
+      <c r="G43" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="J43" t="s">
+      <c r="J43" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
         <v>1966</v>
       </c>
-      <c r="L43">
+      <c r="L43" s="5">
         <v>120000</v>
       </c>
       <c r="M43" t="s">
@@ -6531,40 +6544,40 @@
       </c>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="A44" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="D44" t="s">
+      <c r="D44" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="F44">
+      <c r="F44" s="5">
         <v>18538</v>
       </c>
-      <c r="G44" t="s">
+      <c r="G44" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H44" t="s">
+      <c r="H44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I44" t="s">
+      <c r="I44" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J44" t="s">
+      <c r="J44" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="K44">
+      <c r="K44" s="5">
         <v>2001</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="5">
         <v>260000</v>
       </c>
       <c r="M44" t="s">
@@ -6610,40 +6623,40 @@
       </c>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="A45" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D45" s="5" t="s">
         <v>439</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E45" s="5" t="s">
         <v>440</v>
       </c>
-      <c r="F45">
+      <c r="F45" s="5">
         <v>10440</v>
       </c>
-      <c r="G45" t="s">
+      <c r="G45" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H45" t="s">
+      <c r="H45" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J45" t="s">
+      <c r="J45" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="K45">
+      <c r="K45" s="5">
         <v>1979</v>
       </c>
-      <c r="L45">
+      <c r="L45" s="5">
         <v>70000</v>
       </c>
       <c r="M45" t="s">
@@ -6689,40 +6702,40 @@
       </c>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="A46" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="D46" t="s">
+      <c r="D46" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E46" s="5" t="s">
         <v>424</v>
       </c>
-      <c r="F46">
+      <c r="F46" s="5">
         <v>16674</v>
       </c>
-      <c r="G46" t="s">
+      <c r="G46" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H46" t="s">
+      <c r="H46" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="J46" t="s">
+      <c r="J46" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="K46">
+      <c r="K46" s="5">
         <v>1978</v>
       </c>
-      <c r="L46">
+      <c r="L46" s="5">
         <v>295000</v>
       </c>
       <c r="M46" t="s">
@@ -6768,40 +6781,40 @@
       </c>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="A47" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D47" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E47" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="F47">
+      <c r="F47" s="5">
         <v>11252</v>
       </c>
-      <c r="G47" t="s">
+      <c r="G47" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H47" t="s">
+      <c r="H47" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J47" t="s">
+      <c r="J47" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K47">
+      <c r="K47" s="5">
         <v>1962</v>
       </c>
-      <c r="L47">
+      <c r="L47" s="5">
         <v>55000</v>
       </c>
       <c r="M47" t="s">
@@ -6847,40 +6860,40 @@
       </c>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="A48" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C48" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D48" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E48" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F48">
+      <c r="F48" s="5">
         <v>11362</v>
       </c>
-      <c r="G48" t="s">
+      <c r="G48" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H48" t="s">
+      <c r="H48" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J48" t="s">
+      <c r="J48" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="K48">
+      <c r="K48" s="5">
         <v>1963</v>
       </c>
-      <c r="L48">
+      <c r="L48" s="5">
         <v>105000</v>
       </c>
       <c r="M48" t="s">
@@ -6926,40 +6939,40 @@
       </c>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="A49" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C49" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D49" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E49" s="5" t="s">
         <v>574</v>
       </c>
-      <c r="F49">
+      <c r="F49" s="5">
         <v>12351</v>
       </c>
-      <c r="G49" t="s">
+      <c r="G49" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H49" t="s">
+      <c r="H49" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="5" t="s">
         <v>575</v>
       </c>
-      <c r="J49" t="s">
+      <c r="J49" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
         <v>1993</v>
       </c>
-      <c r="L49">
+      <c r="L49" s="5">
         <v>142000</v>
       </c>
       <c r="M49" t="s">
@@ -7005,40 +7018,40 @@
       </c>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="A50" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D50" t="s">
+      <c r="D50" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E50" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="F50">
+      <c r="F50" s="5">
         <v>18541</v>
       </c>
-      <c r="G50" t="s">
+      <c r="G50" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H50" t="s">
+      <c r="H50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J50" t="s">
+      <c r="J50" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="K50">
+      <c r="K50" s="5">
         <v>1965</v>
       </c>
-      <c r="L50">
+      <c r="L50" s="5">
         <v>70000</v>
       </c>
       <c r="M50" t="s">
@@ -7084,40 +7097,40 @@
       </c>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="A51" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D51" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="F51">
+      <c r="F51" s="5">
         <v>57019</v>
       </c>
-      <c r="G51" t="s">
+      <c r="G51" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H51" t="s">
+      <c r="H51" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="J51" t="s">
+      <c r="J51" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="5">
         <v>2005</v>
       </c>
-      <c r="L51">
+      <c r="L51" s="5">
         <v>160000</v>
       </c>
       <c r="M51" t="s">
@@ -7163,40 +7176,40 @@
       </c>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="A52" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D52" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E52" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="F52">
+      <c r="F52" s="5">
         <v>18450</v>
       </c>
-      <c r="G52" t="s">
+      <c r="G52" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H52" t="s">
+      <c r="H52" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="J52" t="s">
+      <c r="J52" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="5">
         <v>1965</v>
       </c>
-      <c r="L52">
+      <c r="L52" s="5">
         <v>86000</v>
       </c>
       <c r="M52" t="s">
@@ -7242,40 +7255,40 @@
       </c>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
+      <c r="A53" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D53" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E53" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="F53">
+      <c r="F53" s="5">
         <v>57500</v>
       </c>
-      <c r="G53" t="s">
+      <c r="G53" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H53" t="s">
+      <c r="H53" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="J53" t="s">
+      <c r="J53" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="5">
         <v>2000</v>
       </c>
-      <c r="L53">
+      <c r="L53" s="5">
         <v>187000</v>
       </c>
       <c r="M53" t="s">
@@ -7321,40 +7334,40 @@
       </c>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
+      <c r="A54" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D54" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E54" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="F54">
+      <c r="F54" s="5">
         <v>11744</v>
       </c>
-      <c r="G54" t="s">
+      <c r="G54" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H54" t="s">
+      <c r="H54" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J54" t="s">
+      <c r="J54" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="K54">
+      <c r="K54" s="5">
         <v>1976</v>
       </c>
-      <c r="L54">
+      <c r="L54" s="5">
         <v>134000</v>
       </c>
       <c r="M54" t="s">
@@ -7400,40 +7413,40 @@
       </c>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
+      <c r="A55" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="D55" t="s">
+      <c r="D55" s="5" t="s">
         <v>531</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E55" s="5" t="s">
         <v>532</v>
       </c>
-      <c r="F55">
+      <c r="F55" s="5">
         <v>11145</v>
       </c>
-      <c r="G55" t="s">
+      <c r="G55" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H55" t="s">
+      <c r="H55" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J55" t="s">
+      <c r="J55" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="K55">
+      <c r="K55" s="5">
         <v>1989</v>
       </c>
-      <c r="L55">
+      <c r="L55" s="5">
         <v>190000</v>
       </c>
       <c r="M55" t="s">
@@ -7479,37 +7492,38 @@
       </c>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="A56" s="5" t="s">
         <v>815</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="5" t="s">
         <v>816</v>
       </c>
-      <c r="E56" t="s">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
         <v>817</v>
       </c>
-      <c r="F56">
+      <c r="F56" s="5">
         <v>10444</v>
       </c>
-      <c r="G56" t="s">
+      <c r="G56" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H56" t="s">
+      <c r="H56" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J56" t="s">
+      <c r="J56" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="K56">
+      <c r="K56" s="5">
         <v>2007</v>
       </c>
-      <c r="L56">
+      <c r="L56" s="5">
         <v>233000</v>
       </c>
       <c r="M56" t="s">
@@ -7555,40 +7569,40 @@
       </c>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="A57" s="5" t="s">
         <v>482</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="5" t="s">
         <v>483</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D57" s="5" t="s">
         <v>484</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E57" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="F57">
+      <c r="F57" s="5">
         <v>10431</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="5" t="s">
         <v>486</v>
       </c>
-      <c r="K57">
+      <c r="K57" s="5">
         <v>1982</v>
       </c>
-      <c r="L57">
+      <c r="L57" s="5">
         <v>104000</v>
       </c>
       <c r="M57" t="s">
@@ -7634,40 +7648,40 @@
       </c>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="A58" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C58" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D58" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E58" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="F58">
+      <c r="F58" s="5">
         <v>14231</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I58" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="K58">
+      <c r="K58" s="5">
         <v>1967</v>
       </c>
-      <c r="L58">
+      <c r="L58" s="5">
         <v>195000</v>
       </c>
       <c r="M58" t="s">
@@ -7713,40 +7727,40 @@
       </c>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="A59" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C59" t="s">
+      <c r="C59" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="D59" t="s">
+      <c r="D59" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E59" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="5">
         <v>16121</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I59" t="s">
+      <c r="I59" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="K59">
+      <c r="K59" s="5">
         <v>1969</v>
       </c>
-      <c r="L59">
+      <c r="L59" s="5">
         <v>175000</v>
       </c>
       <c r="M59" t="s">
@@ -7792,40 +7806,40 @@
       </c>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="A60" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="D60" t="s">
+      <c r="D60" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="F60">
+      <c r="F60" s="5">
         <v>19100</v>
       </c>
-      <c r="G60" t="s">
+      <c r="G60" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H60" t="s">
+      <c r="H60" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J60" t="s">
+      <c r="J60" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="K60">
+      <c r="K60" s="5">
         <v>1950</v>
       </c>
-      <c r="L60">
+      <c r="L60" s="5">
         <v>32000</v>
       </c>
       <c r="M60" t="s">
@@ -7871,40 +7885,40 @@
       </c>
     </row>
     <row r="61" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="A61" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C61" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="D61" t="s">
+      <c r="D61" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E61" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="F61">
+      <c r="F61" s="5">
         <v>16232</v>
       </c>
-      <c r="G61" t="s">
+      <c r="G61" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H61" t="s">
+      <c r="H61" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J61" t="s">
+      <c r="J61" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="K61">
+      <c r="K61" s="5">
         <v>1974</v>
       </c>
-      <c r="L61">
+      <c r="L61" s="5">
         <v>102000</v>
       </c>
       <c r="M61" t="s">
@@ -7950,40 +7964,40 @@
       </c>
     </row>
     <row r="62" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="A62" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C62" t="s">
+      <c r="C62" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="D62" t="s">
+      <c r="D62" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E62" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F62">
+      <c r="F62" s="5">
         <v>18756</v>
       </c>
-      <c r="G62" t="s">
+      <c r="G62" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="K62">
+      <c r="K62" s="5">
         <v>1956</v>
       </c>
-      <c r="L62">
+      <c r="L62" s="5">
         <v>60000</v>
       </c>
       <c r="M62" t="s">
@@ -8029,40 +8043,40 @@
       </c>
     </row>
     <row r="63" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="A63" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="5" t="s">
         <v>430</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E63" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="F63">
+      <c r="F63" s="5">
         <v>15343</v>
       </c>
-      <c r="G63" t="s">
+      <c r="G63" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="K63">
+      <c r="K63" s="5">
         <v>1979</v>
       </c>
-      <c r="L63">
+      <c r="L63" s="5">
         <v>178000</v>
       </c>
       <c r="M63" t="s">
@@ -8108,40 +8122,40 @@
       </c>
     </row>
     <row r="64" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="A64" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="D64" t="s">
+      <c r="D64" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E64" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="F64">
+      <c r="F64" s="5">
         <v>11524</v>
       </c>
-      <c r="G64" t="s">
+      <c r="G64" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H64" t="s">
+      <c r="H64" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J64" t="s">
+      <c r="J64" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="K64">
+      <c r="K64" s="5">
         <v>1971</v>
       </c>
-      <c r="L64">
+      <c r="L64" s="5">
         <v>123000</v>
       </c>
       <c r="M64" t="s">
@@ -8187,40 +8201,40 @@
       </c>
     </row>
     <row r="65" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="A65" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="5" t="s">
         <v>331</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D65" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E65" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F65">
+      <c r="F65" s="5">
         <v>10446</v>
       </c>
-      <c r="G65" t="s">
+      <c r="G65" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H65" t="s">
+      <c r="H65" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J65" t="s">
+      <c r="J65" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="K65">
+      <c r="K65" s="5">
         <v>1972</v>
       </c>
-      <c r="L65">
+      <c r="L65" s="5">
         <v>57000</v>
       </c>
       <c r="M65" t="s">
@@ -8266,40 +8280,40 @@
       </c>
     </row>
     <row r="66" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="A66" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C66" t="s">
+      <c r="C66" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D66" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E66" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="F66">
+      <c r="F66" s="5">
         <v>11144</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G66" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H66" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J66" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="K66">
+      <c r="K66" s="5">
         <v>1964</v>
       </c>
-      <c r="L66">
+      <c r="L66" s="5">
         <v>60000</v>
       </c>
       <c r="M66" t="s">
@@ -8346,40 +8360,40 @@
       </c>
     </row>
     <row r="67" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
+      <c r="A67" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C67" t="s">
+      <c r="C67" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D67" t="s">
+      <c r="D67" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E67" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="F67">
+      <c r="F67" s="5">
         <v>57018</v>
       </c>
-      <c r="G67" t="s">
+      <c r="G67" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H67" t="s">
+      <c r="H67" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="J67" t="s">
+      <c r="J67" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="5">
         <v>1979</v>
       </c>
-      <c r="L67">
+      <c r="L67" s="5">
         <v>140000</v>
       </c>
       <c r="M67" t="s">
@@ -8425,40 +8439,40 @@
       </c>
     </row>
     <row r="68" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+      <c r="A68" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D68" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="F68">
+      <c r="F68" s="5">
         <v>10445</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G68" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H68" t="s">
+      <c r="H68" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J68" t="s">
+      <c r="J68" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="K68">
+      <c r="K68" s="5">
         <v>1965</v>
       </c>
-      <c r="L68">
+      <c r="L68" s="5">
         <v>55000</v>
       </c>
       <c r="M68" t="s">
@@ -8504,40 +8518,40 @@
       </c>
     </row>
     <row r="69" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="A69" s="5" t="s">
         <v>563</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="5" t="s">
         <v>564</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D69" s="5" t="s">
         <v>565</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E69" s="5" t="s">
         <v>566</v>
       </c>
-      <c r="F69">
+      <c r="F69" s="5">
         <v>13231</v>
       </c>
-      <c r="G69" t="s">
+      <c r="G69" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H69" t="s">
+      <c r="H69" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="5" t="s">
         <v>567</v>
       </c>
-      <c r="J69" t="s">
+      <c r="J69" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="K69">
+      <c r="K69" s="5">
         <v>1992</v>
       </c>
-      <c r="L69">
+      <c r="L69" s="5">
         <v>185000</v>
       </c>
       <c r="M69" t="s">
@@ -8583,40 +8597,40 @@
       </c>
     </row>
     <row r="70" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
+      <c r="A70" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C70" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D70" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E70" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="F70">
+      <c r="F70" s="5">
         <v>14569</v>
       </c>
-      <c r="G70" t="s">
+      <c r="G70" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H70" t="s">
+      <c r="H70" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="J70" t="s">
+      <c r="J70" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="K70">
+      <c r="K70" s="5">
         <v>1986</v>
       </c>
-      <c r="L70">
+      <c r="L70" s="5">
         <v>295000</v>
       </c>
       <c r="M70" t="s">
@@ -8662,40 +8676,40 @@
       </c>
     </row>
     <row r="71" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
+      <c r="A71" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C71" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E71" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="F71">
+      <c r="F71" s="5">
         <v>10432</v>
       </c>
-      <c r="G71" t="s">
+      <c r="G71" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J71" t="s">
+      <c r="J71" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K71">
+      <c r="K71" s="5">
         <v>1961</v>
       </c>
-      <c r="L71">
+      <c r="L71" s="5">
         <v>165000</v>
       </c>
       <c r="M71" t="s">
@@ -8741,40 +8755,40 @@
       </c>
     </row>
     <row r="72" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
+      <c r="A72" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D72" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E72" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="F72">
+      <c r="F72" s="5">
         <v>17562</v>
       </c>
-      <c r="G72" t="s">
+      <c r="G72" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H72" t="s">
+      <c r="H72" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J72" t="s">
+      <c r="J72" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="5">
         <v>2005</v>
       </c>
-      <c r="L72">
+      <c r="L72" s="5">
         <v>414000</v>
       </c>
       <c r="M72" t="s">
@@ -8820,40 +8834,40 @@
       </c>
     </row>
     <row r="73" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
+      <c r="A73" s="5" t="s">
         <v>382</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D73" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E73" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="F73">
+      <c r="F73" s="5">
         <v>16344</v>
       </c>
-      <c r="G73" t="s">
+      <c r="G73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H73" t="s">
+      <c r="H73" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="5" t="s">
         <v>386</v>
       </c>
-      <c r="J73" t="s">
+      <c r="J73" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="5">
         <v>1975</v>
       </c>
-      <c r="L73">
+      <c r="L73" s="5">
         <v>122000</v>
       </c>
       <c r="M73" t="s">
@@ -8899,40 +8913,40 @@
       </c>
     </row>
     <row r="74" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
+      <c r="A74" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D74" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E74" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="F74">
+      <c r="F74" s="5">
         <v>18121</v>
       </c>
-      <c r="G74" t="s">
+      <c r="G74" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H74" t="s">
+      <c r="H74" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="J74" t="s">
+      <c r="J74" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="5">
         <v>1967</v>
       </c>
-      <c r="L74">
+      <c r="L74" s="5">
         <v>75000</v>
       </c>
       <c r="M74" t="s">
@@ -8978,40 +8992,40 @@
       </c>
     </row>
     <row r="75" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="A75" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C75" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D75" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E75" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="F75">
+      <c r="F75" s="5">
         <v>11633</v>
       </c>
-      <c r="G75" t="s">
+      <c r="G75" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H75" t="s">
+      <c r="H75" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J75" t="s">
+      <c r="J75" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="K75">
+      <c r="K75" s="5">
         <v>1980</v>
       </c>
-      <c r="L75">
+      <c r="L75" s="5">
         <v>235000</v>
       </c>
       <c r="M75" t="s">
@@ -9057,40 +9071,40 @@
       </c>
     </row>
     <row r="76" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+      <c r="A76" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C76" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D76" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E76" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="F76">
+      <c r="F76" s="5">
         <v>13671</v>
       </c>
-      <c r="G76" t="s">
+      <c r="G76" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H76" t="s">
+      <c r="H76" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="J76" t="s">
+      <c r="J76" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="5">
         <v>1972</v>
       </c>
-      <c r="L76">
+      <c r="L76" s="5">
         <v>90000</v>
       </c>
       <c r="M76" t="s">
@@ -9136,40 +9150,40 @@
       </c>
     </row>
     <row r="77" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="A77" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C77" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D77" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E77" s="5" t="s">
         <v>783</v>
       </c>
-      <c r="F77">
+      <c r="F77" s="5">
         <v>18542</v>
       </c>
-      <c r="G77" t="s">
+      <c r="G77" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H77" t="s">
+      <c r="H77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I77" t="s">
+      <c r="I77" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J77" t="s">
+      <c r="J77" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="5">
         <v>2005</v>
       </c>
-      <c r="L77">
+      <c r="L77" s="5">
         <v>170000</v>
       </c>
       <c r="M77" t="s">
@@ -9215,40 +9229,40 @@
       </c>
     </row>
     <row r="78" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="A78" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D78" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E78" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="F78">
+      <c r="F78" s="5">
         <v>11523</v>
       </c>
-      <c r="G78" t="s">
+      <c r="G78" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H78" t="s">
+      <c r="H78" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J78" t="s">
+      <c r="J78" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="5">
         <v>1960</v>
       </c>
-      <c r="L78">
+      <c r="L78" s="5">
         <v>191000</v>
       </c>
       <c r="M78" t="s">
@@ -9294,40 +9308,40 @@
       </c>
     </row>
     <row r="79" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
+      <c r="A79" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D79" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E79" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F79">
+      <c r="F79" s="5">
         <v>16231</v>
       </c>
-      <c r="G79" t="s">
+      <c r="G79" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H79" t="s">
+      <c r="H79" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="J79" t="s">
+      <c r="J79" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="K79">
+      <c r="K79" s="5">
         <v>1960</v>
       </c>
-      <c r="L79">
+      <c r="L79" s="5">
         <v>129000</v>
       </c>
       <c r="M79" t="s">
@@ -9373,40 +9387,40 @@
       </c>
     </row>
     <row r="80" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="A80" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C80" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D80" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E80" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="F80">
+      <c r="F80" s="5">
         <v>56431</v>
       </c>
-      <c r="G80" t="s">
+      <c r="G80" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H80" t="s">
+      <c r="H80" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="J80" t="s">
+      <c r="J80" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="K80">
+      <c r="K80" s="5">
         <v>1976</v>
       </c>
-      <c r="L80">
+      <c r="L80" s="5">
         <v>115000</v>
       </c>
       <c r="M80" t="s">
@@ -9452,37 +9466,38 @@
       </c>
     </row>
     <row r="81" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
+      <c r="A81" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D81" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E81" s="5" t="s">
         <v>901</v>
       </c>
-      <c r="F81">
+      <c r="F81" s="5">
         <v>54645</v>
       </c>
-      <c r="G81" t="s">
+      <c r="G81" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H81" t="s">
+      <c r="H81" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J81" t="s">
+      <c r="J81" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="L81">
+      <c r="K81" s="5"/>
+      <c r="L81" s="5">
         <v>1450000</v>
       </c>
       <c r="M81" t="s">
@@ -9528,40 +9543,40 @@
       </c>
     </row>
     <row r="82" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
+      <c r="A82" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C82" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D82" s="5" t="s">
         <v>476</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E82" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="F82">
+      <c r="F82" s="5">
         <v>14122</v>
       </c>
-      <c r="G82" t="s">
+      <c r="G82" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H82" t="s">
+      <c r="H82" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="J82" t="s">
+      <c r="J82" s="5" t="s">
         <v>479</v>
       </c>
-      <c r="K82">
+      <c r="K82" s="5">
         <v>1981</v>
       </c>
-      <c r="L82">
+      <c r="L82" s="5">
         <v>97000</v>
       </c>
       <c r="M82" t="s">
@@ -9607,40 +9622,40 @@
       </c>
     </row>
     <row r="83" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="A83" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C83" t="s">
+      <c r="C83" s="5" t="s">
         <v>535</v>
       </c>
-      <c r="D83" t="s">
+      <c r="D83" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E83" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="F83">
+      <c r="F83" s="5">
         <v>13343</v>
       </c>
-      <c r="G83" t="s">
+      <c r="G83" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H83" t="s">
+      <c r="H83" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J83" t="s">
+      <c r="J83" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="K83">
+      <c r="K83" s="5">
         <v>1989</v>
       </c>
-      <c r="L83">
+      <c r="L83" s="5">
         <v>94000</v>
       </c>
       <c r="M83" t="s">
@@ -9686,40 +9701,40 @@
       </c>
     </row>
     <row r="84" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="A84" s="5" t="s">
         <v>722</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="5" t="s">
         <v>723</v>
       </c>
-      <c r="D84" t="s">
+      <c r="D84" s="5" t="s">
         <v>724</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E84" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="F84">
+      <c r="F84" s="5">
         <v>10441</v>
       </c>
-      <c r="G84" t="s">
+      <c r="G84" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H84" t="s">
+      <c r="H84" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J84" t="s">
+      <c r="J84" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="K84">
+      <c r="K84" s="5">
         <v>2005</v>
       </c>
-      <c r="L84">
+      <c r="L84" s="5">
         <v>190000</v>
       </c>
       <c r="M84" t="s">
@@ -9765,40 +9780,40 @@
       </c>
     </row>
     <row r="85" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
+      <c r="A85" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C85" t="s">
+      <c r="C85" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D85" t="s">
+      <c r="D85" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E85" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F85">
+      <c r="F85" s="5">
         <v>18863</v>
       </c>
-      <c r="G85" t="s">
+      <c r="G85" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H85" t="s">
+      <c r="H85" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I85" t="s">
+      <c r="I85" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="J85" t="s">
+      <c r="J85" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="K85">
+      <c r="K85" s="5">
         <v>1975</v>
       </c>
-      <c r="L85">
+      <c r="L85" s="5">
         <v>98000</v>
       </c>
       <c r="M85" t="s">
@@ -9844,40 +9859,40 @@
       </c>
     </row>
     <row r="86" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="A86" s="5" t="s">
         <v>670</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="5" t="s">
         <v>671</v>
       </c>
-      <c r="D86" t="s">
+      <c r="D86" s="5" t="s">
         <v>672</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E86" s="5" t="s">
         <v>673</v>
       </c>
-      <c r="F86">
+      <c r="F86" s="5">
         <v>55133</v>
       </c>
-      <c r="G86" t="s">
+      <c r="G86" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H86" t="s">
+      <c r="H86" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="5" t="s">
         <v>674</v>
       </c>
-      <c r="J86" t="s">
+      <c r="J86" s="5" t="s">
         <v>675</v>
       </c>
-      <c r="K86">
+      <c r="K86" s="5">
         <v>2003</v>
       </c>
-      <c r="L86">
+      <c r="L86" s="5">
         <v>230000</v>
       </c>
       <c r="M86" t="s">
@@ -9923,40 +9938,40 @@
       </c>
     </row>
     <row r="87" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="A87" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="D87" t="s">
+      <c r="D87" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E87" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="F87">
+      <c r="F87" s="5">
         <v>14121</v>
       </c>
-      <c r="G87" t="s">
+      <c r="G87" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H87" t="s">
+      <c r="H87" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="J87" t="s">
+      <c r="J87" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="K87">
+      <c r="K87" s="5">
         <v>2004</v>
       </c>
-      <c r="L87">
+      <c r="L87" s="5">
         <v>240000</v>
       </c>
       <c r="M87" t="s">
@@ -10002,40 +10017,40 @@
       </c>
     </row>
     <row r="88" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
+      <c r="A88" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="D88" t="s">
+      <c r="D88" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="E88" t="s">
+      <c r="E88" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="F88">
+      <c r="F88" s="5">
         <v>14122</v>
       </c>
-      <c r="G88" t="s">
+      <c r="G88" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H88" t="s">
+      <c r="H88" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I88" t="s">
+      <c r="I88" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="J88" t="s">
+      <c r="J88" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="K88">
+      <c r="K88" s="5">
         <v>2007</v>
       </c>
-      <c r="L88">
+      <c r="L88" s="5">
         <v>110000</v>
       </c>
       <c r="M88" t="s">
@@ -10081,40 +10096,40 @@
       </c>
     </row>
     <row r="89" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="A89" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D89" t="s">
+      <c r="D89" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E89" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="F89">
+      <c r="F89" s="5">
         <v>13341</v>
       </c>
-      <c r="G89" t="s">
+      <c r="G89" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H89" t="s">
+      <c r="H89" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="J89" t="s">
+      <c r="J89" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="K89">
+      <c r="K89" s="5">
         <v>1976</v>
       </c>
-      <c r="L89">
+      <c r="L89" s="5">
         <v>50000</v>
       </c>
       <c r="M89" t="s">
@@ -10160,40 +10175,40 @@
       </c>
     </row>
     <row r="90" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="A90" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D90" t="s">
+      <c r="D90" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="E90" t="s">
+      <c r="E90" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="F90">
+      <c r="F90" s="5">
         <v>11364</v>
       </c>
-      <c r="G90" t="s">
+      <c r="G90" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H90" t="s">
+      <c r="H90" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J90" t="s">
+      <c r="J90" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="K90">
+      <c r="K90" s="5">
         <v>1987</v>
       </c>
-      <c r="L90">
+      <c r="L90" s="5">
         <v>200000</v>
       </c>
       <c r="M90" t="s">
@@ -10239,40 +10254,40 @@
       </c>
     </row>
     <row r="91" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
+      <c r="A91" s="5" t="s">
         <v>490</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="5" t="s">
         <v>491</v>
       </c>
-      <c r="D91" t="s">
+      <c r="D91" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="E91" t="s">
+      <c r="E91" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="F91">
+      <c r="F91" s="5">
         <v>56334</v>
       </c>
-      <c r="G91" t="s">
+      <c r="G91" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H91" t="s">
+      <c r="H91" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J91" t="s">
+      <c r="J91" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="K91">
+      <c r="K91" s="5">
         <v>1982</v>
       </c>
-      <c r="L91">
+      <c r="L91" s="5">
         <v>120000</v>
       </c>
       <c r="M91" t="s">
@@ -10318,40 +10333,40 @@
       </c>
     </row>
     <row r="92" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="A92" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D92" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E92" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="F92">
+      <c r="F92" s="5">
         <v>56334</v>
       </c>
-      <c r="G92" t="s">
+      <c r="G92" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H92" t="s">
+      <c r="H92" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J92" t="s">
+      <c r="J92" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="K92">
+      <c r="K92" s="5">
         <v>1988</v>
       </c>
-      <c r="L92">
+      <c r="L92" s="5">
         <v>111000</v>
       </c>
       <c r="M92" t="s">
@@ -10397,40 +10412,40 @@
       </c>
     </row>
     <row r="93" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="A93" s="5" t="s">
         <v>709</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C93" t="s">
+      <c r="C93" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D93" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E93" s="5" t="s">
         <v>711</v>
       </c>
-      <c r="F93">
+      <c r="F93" s="5">
         <v>18546</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G93" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J93" s="5" t="s">
         <v>712</v>
       </c>
-      <c r="K93">
+      <c r="K93" s="5">
         <v>2004</v>
       </c>
-      <c r="L93">
+      <c r="L93" s="5">
         <v>167000</v>
       </c>
       <c r="M93" t="s">
@@ -10476,40 +10491,40 @@
       </c>
     </row>
     <row r="94" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="A94" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="5" t="s">
         <v>841</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D94" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E94" s="5" t="s">
         <v>843</v>
       </c>
-      <c r="F94">
+      <c r="F94" s="5">
         <v>57200</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G94" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H94" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J94" s="5" t="s">
         <v>844</v>
       </c>
-      <c r="K94">
+      <c r="K94" s="5">
         <v>2007</v>
       </c>
-      <c r="L94">
+      <c r="L94" s="5">
         <v>163000</v>
       </c>
       <c r="M94" t="s">
@@ -10555,40 +10570,40 @@
       </c>
     </row>
     <row r="95" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="A95" s="5" t="s">
         <v>652</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="5" t="s">
         <v>653</v>
       </c>
-      <c r="D95" t="s">
+      <c r="D95" s="5" t="s">
         <v>654</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E95" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="F95">
+      <c r="F95" s="5">
         <v>10446</v>
       </c>
-      <c r="G95" t="s">
+      <c r="G95" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H95" t="s">
+      <c r="H95" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J95" t="s">
+      <c r="J95" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K95">
+      <c r="K95" s="5">
         <v>2003</v>
       </c>
-      <c r="L95">
+      <c r="L95" s="5">
         <v>148000</v>
       </c>
       <c r="M95" t="s">
@@ -10634,40 +10649,40 @@
       </c>
     </row>
     <row r="96" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
+      <c r="A96" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C96" t="s">
+      <c r="C96" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D96" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E96" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="F96">
+      <c r="F96" s="5">
         <v>19100</v>
       </c>
-      <c r="G96" t="s">
+      <c r="G96" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H96" t="s">
+      <c r="H96" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="J96" t="s">
+      <c r="J96" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="K96">
+      <c r="K96" s="5">
         <v>1972</v>
       </c>
-      <c r="L96">
+      <c r="L96" s="5">
         <v>71000</v>
       </c>
       <c r="M96" t="s">
@@ -10713,40 +10728,40 @@
       </c>
     </row>
     <row r="97" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A97" t="s">
+      <c r="A97" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D97" t="s">
+      <c r="D97" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E97" t="s">
+      <c r="E97" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="F97">
+      <c r="F97" s="5">
         <v>12244</v>
       </c>
-      <c r="G97" t="s">
+      <c r="G97" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H97" t="s">
+      <c r="H97" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="J97" t="s">
+      <c r="J97" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="K97">
+      <c r="K97" s="5">
         <v>1980</v>
       </c>
-      <c r="L97">
+      <c r="L97" s="5">
         <v>145000</v>
       </c>
       <c r="M97" t="s">
@@ -10792,40 +10807,40 @@
       </c>
     </row>
     <row r="98" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A98" t="s">
+      <c r="A98" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C98" t="s">
+      <c r="C98" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="D98" t="s">
+      <c r="D98" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E98" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F98">
+      <c r="F98" s="5">
         <v>11741</v>
       </c>
-      <c r="G98" t="s">
+      <c r="G98" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H98" t="s">
+      <c r="H98" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J98" t="s">
+      <c r="J98" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="K98">
+      <c r="K98" s="5">
         <v>1969</v>
       </c>
-      <c r="L98">
+      <c r="L98" s="5">
         <v>550000</v>
       </c>
       <c r="M98" t="s">
@@ -10871,40 +10886,40 @@
       </c>
     </row>
     <row r="99" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="A99" s="5" t="s">
         <v>758</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="5" t="s">
         <v>759</v>
       </c>
-      <c r="D99" t="s">
+      <c r="D99" s="5" t="s">
         <v>760</v>
       </c>
-      <c r="E99" t="s">
+      <c r="E99" s="5" t="s">
         <v>761</v>
       </c>
-      <c r="F99">
+      <c r="F99" s="5">
         <v>19003</v>
       </c>
-      <c r="G99" t="s">
+      <c r="G99" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H99" t="s">
+      <c r="H99" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I99" t="s">
+      <c r="I99" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="J99" t="s">
+      <c r="J99" s="5" t="s">
         <v>762</v>
       </c>
-      <c r="K99">
+      <c r="K99" s="5">
         <v>2005</v>
       </c>
-      <c r="L99">
+      <c r="L99" s="5">
         <v>93000</v>
       </c>
       <c r="M99" t="s">
@@ -10950,40 +10965,40 @@
       </c>
     </row>
     <row r="100" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="A100" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C100" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D100" t="s">
+      <c r="D100" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="E100" t="s">
+      <c r="E100" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="F100">
+      <c r="F100" s="5">
         <v>11251</v>
       </c>
-      <c r="G100" t="s">
+      <c r="G100" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H100" t="s">
+      <c r="H100" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J100" t="s">
+      <c r="J100" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="K100">
+      <c r="K100" s="5">
         <v>2004</v>
       </c>
-      <c r="L100">
+      <c r="L100" s="5">
         <v>160000</v>
       </c>
       <c r="M100" t="s">
@@ -11029,40 +11044,40 @@
       </c>
     </row>
     <row r="101" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="A101" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C101" t="s">
+      <c r="C101" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="D101" t="s">
+      <c r="D101" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E101" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="F101">
+      <c r="F101" s="5">
         <v>14568</v>
       </c>
-      <c r="G101" t="s">
+      <c r="G101" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="J101" t="s">
+      <c r="J101" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="K101">
+      <c r="K101" s="5">
         <v>2007</v>
       </c>
-      <c r="L101">
+      <c r="L101" s="5">
         <v>144000</v>
       </c>
       <c r="M101" t="s">
@@ -11108,40 +11123,40 @@
       </c>
     </row>
     <row r="102" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
+      <c r="A102" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C102" t="s">
+      <c r="C102" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D102" t="s">
+      <c r="D102" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E102" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="F102">
+      <c r="F102" s="5">
         <v>13674</v>
       </c>
-      <c r="G102" t="s">
+      <c r="G102" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H102" t="s">
+      <c r="H102" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="J102" t="s">
+      <c r="J102" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="K102">
+      <c r="K102" s="5">
         <v>2003</v>
       </c>
-      <c r="L102">
+      <c r="L102" s="5">
         <v>135000</v>
       </c>
       <c r="M102" t="s">
@@ -11187,40 +11202,40 @@
       </c>
     </row>
     <row r="103" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
+      <c r="A103" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D103" t="s">
+      <c r="D103" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E103" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="F103">
+      <c r="F103" s="5">
         <v>11143</v>
       </c>
-      <c r="G103" t="s">
+      <c r="G103" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H103" t="s">
+      <c r="H103" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J103" t="s">
+      <c r="J103" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="K103">
+      <c r="K103" s="5">
         <v>1971</v>
       </c>
-      <c r="L103">
+      <c r="L103" s="5">
         <v>196000</v>
       </c>
       <c r="M103" t="s">
@@ -11266,40 +11281,40 @@
       </c>
     </row>
     <row r="104" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
+      <c r="A104" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C104" t="s">
+      <c r="C104" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D104" t="s">
+      <c r="D104" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E104" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="F104">
+      <c r="F104" s="5">
         <v>56224</v>
       </c>
-      <c r="G104" t="s">
+      <c r="G104" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H104" t="s">
+      <c r="H104" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J104" t="s">
+      <c r="J104" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="K104">
+      <c r="K104" s="5">
         <v>2003</v>
       </c>
-      <c r="L104">
+      <c r="L104" s="5">
         <v>75000</v>
       </c>
       <c r="M104" t="s">
@@ -11345,40 +11360,40 @@
       </c>
     </row>
     <row r="105" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="A105" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="D105" t="s">
+      <c r="D105" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E105" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="F105">
+      <c r="F105" s="5">
         <v>57500</v>
       </c>
-      <c r="G105" t="s">
+      <c r="G105" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H105" t="s">
+      <c r="H105" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="J105" t="s">
+      <c r="J105" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="K105">
+      <c r="K105" s="5">
         <v>2008</v>
       </c>
-      <c r="L105">
+      <c r="L105" s="5">
         <v>153000</v>
       </c>
       <c r="M105" t="s">
@@ -11424,40 +11439,40 @@
       </c>
     </row>
     <row r="106" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="A106" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C106" t="s">
+      <c r="C106" s="5" t="s">
         <v>716</v>
       </c>
-      <c r="D106" t="s">
+      <c r="D106" s="5" t="s">
         <v>717</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E106" s="5" t="s">
         <v>718</v>
       </c>
-      <c r="F106">
+      <c r="F106" s="5">
         <v>11254</v>
       </c>
-      <c r="G106" t="s">
+      <c r="G106" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H106" t="s">
+      <c r="H106" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J106" t="s">
+      <c r="J106" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="K106">
+      <c r="K106" s="5">
         <v>2005</v>
       </c>
-      <c r="L106">
+      <c r="L106" s="5">
         <v>185000</v>
       </c>
       <c r="M106" t="s">
@@ -11503,40 +11518,40 @@
       </c>
     </row>
     <row r="107" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="A107" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="5" t="s">
         <v>658</v>
       </c>
-      <c r="D107" t="s">
+      <c r="D107" s="5" t="s">
         <v>659</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E107" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="F107">
+      <c r="F107" s="5">
         <v>13674</v>
       </c>
-      <c r="G107" t="s">
+      <c r="G107" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H107" t="s">
+      <c r="H107" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="J107" t="s">
+      <c r="J107" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="K107">
+      <c r="K107" s="5">
         <v>2003</v>
       </c>
-      <c r="L107">
+      <c r="L107" s="5">
         <v>109000</v>
       </c>
       <c r="M107" t="s">
@@ -11582,40 +11597,40 @@
       </c>
     </row>
     <row r="108" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
+      <c r="A108" s="5" t="s">
         <v>556</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="5" t="s">
         <v>557</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D108" s="5" t="s">
         <v>558</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E108" s="5" t="s">
         <v>559</v>
       </c>
-      <c r="F108">
+      <c r="F108" s="5">
         <v>17563</v>
       </c>
-      <c r="G108" t="s">
+      <c r="G108" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H108" t="s">
+      <c r="H108" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="J108" t="s">
+      <c r="J108" s="5" t="s">
         <v>560</v>
       </c>
-      <c r="K108">
+      <c r="K108" s="5">
         <v>1992</v>
       </c>
-      <c r="L108">
+      <c r="L108" s="5">
         <v>535000</v>
       </c>
       <c r="M108" t="s">
@@ -11661,40 +11676,40 @@
       </c>
     </row>
     <row r="109" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
+      <c r="A109" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C109" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="D109" t="s">
+      <c r="D109" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E109" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="F109">
+      <c r="F109" s="5">
         <v>14578</v>
       </c>
-      <c r="G109" t="s">
+      <c r="G109" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H109" t="s">
+      <c r="H109" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="I109" t="s">
+      <c r="I109" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="J109" t="s">
+      <c r="J109" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="K109">
+      <c r="K109" s="5">
         <v>1998</v>
       </c>
-      <c r="L109">
+      <c r="L109" s="5">
         <v>400000</v>
       </c>
       <c r="M109" t="s">
@@ -11740,40 +11755,40 @@
       </c>
     </row>
     <row r="110" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="A110" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C110" t="s">
+      <c r="C110" s="5" t="s">
         <v>822</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D110" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E110" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="F110">
+      <c r="F110" s="5">
         <v>14568</v>
       </c>
-      <c r="G110" t="s">
+      <c r="G110" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H110" t="s">
+      <c r="H110" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I110" t="s">
+      <c r="I110" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="J110" t="s">
+      <c r="J110" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="K110">
+      <c r="K110" s="5">
         <v>2007</v>
       </c>
-      <c r="L110">
+      <c r="L110" s="5">
         <v>158000</v>
       </c>
       <c r="M110" t="s">
@@ -11819,40 +11834,40 @@
       </c>
     </row>
     <row r="111" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="A111" s="5" t="s">
         <v>794</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D111" t="s">
+      <c r="D111" s="5" t="s">
         <v>795</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E111" s="5" t="s">
         <v>796</v>
       </c>
-      <c r="F111">
+      <c r="F111" s="5">
         <v>56224</v>
       </c>
-      <c r="G111" t="s">
+      <c r="G111" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H111" t="s">
+      <c r="H111" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I111" t="s">
+      <c r="I111" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="J111" t="s">
+      <c r="J111" s="5" t="s">
         <v>797</v>
       </c>
-      <c r="K111">
+      <c r="K111" s="5">
         <v>2006</v>
       </c>
-      <c r="L111">
+      <c r="L111" s="5">
         <v>120000</v>
       </c>
       <c r="M111" t="s">
@@ -11898,40 +11913,40 @@
       </c>
     </row>
     <row r="112" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
+      <c r="A112" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D112" t="s">
+      <c r="D112" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="F112">
+      <c r="F112" s="5">
         <v>13674</v>
       </c>
-      <c r="G112" t="s">
+      <c r="G112" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H112" t="s">
+      <c r="H112" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I112" t="s">
+      <c r="I112" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="J112" t="s">
+      <c r="J112" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="K112">
+      <c r="K112" s="5">
         <v>2005</v>
       </c>
-      <c r="L112">
+      <c r="L112" s="5">
         <v>179000</v>
       </c>
       <c r="M112" t="s">
@@ -11977,40 +11992,40 @@
       </c>
     </row>
     <row r="113" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
+      <c r="A113" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="D113" t="s">
+      <c r="D113" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E113" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F113">
+      <c r="F113" s="5">
         <v>11254</v>
       </c>
-      <c r="G113" t="s">
+      <c r="G113" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H113" t="s">
+      <c r="H113" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I113" t="s">
+      <c r="I113" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J113" t="s">
+      <c r="J113" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="K113">
+      <c r="K113" s="5">
         <v>1957</v>
       </c>
-      <c r="L113">
+      <c r="L113" s="5">
         <v>113000</v>
       </c>
       <c r="M113" t="s">
@@ -12056,40 +12071,40 @@
       </c>
     </row>
     <row r="114" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
+      <c r="A114" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C114" t="s">
+      <c r="C114" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D114" t="s">
+      <c r="D114" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E114" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="F114">
+      <c r="F114" s="5">
         <v>19200</v>
       </c>
-      <c r="G114" t="s">
+      <c r="G114" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H114" t="s">
+      <c r="H114" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I114" t="s">
+      <c r="I114" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="J114" t="s">
+      <c r="J114" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="K114">
+      <c r="K114" s="5">
         <v>1973</v>
       </c>
-      <c r="L114">
+      <c r="L114" s="5">
         <v>77000</v>
       </c>
       <c r="M114" t="s">
@@ -12135,40 +12150,40 @@
       </c>
     </row>
     <row r="115" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="A115" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="D115" t="s">
+      <c r="D115" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E115" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="F115">
+      <c r="F115" s="5">
         <v>57100</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G115" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H115" t="s">
+      <c r="H115" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I115" t="s">
+      <c r="I115" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="J115" t="s">
+      <c r="J115" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="K115">
+      <c r="K115" s="5">
         <v>2005</v>
       </c>
-      <c r="L115">
+      <c r="L115" s="5">
         <v>110000</v>
       </c>
       <c r="M115" t="s">
@@ -12214,40 +12229,40 @@
       </c>
     </row>
     <row r="116" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
+      <c r="A116" s="5" t="s">
         <v>868</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D116" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E116" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F116">
+      <c r="F116" s="5">
         <v>11524</v>
       </c>
-      <c r="G116" t="s">
+      <c r="G116" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H116" t="s">
+      <c r="H116" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I116" t="s">
+      <c r="I116" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J116" t="s">
+      <c r="J116" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="K116">
+      <c r="K116" s="5">
         <v>2009</v>
       </c>
-      <c r="L116">
+      <c r="L116" s="5">
         <v>244000</v>
       </c>
       <c r="M116" t="s">
@@ -12293,40 +12308,40 @@
       </c>
     </row>
     <row r="117" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
+      <c r="A117" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D117" t="s">
+      <c r="D117" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="F117">
+      <c r="F117" s="5">
         <v>54643</v>
       </c>
-      <c r="G117" t="s">
+      <c r="G117" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H117" t="s">
+      <c r="H117" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I117" t="s">
+      <c r="I117" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="J117" t="s">
+      <c r="J117" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="K117">
+      <c r="K117" s="5">
         <v>1999</v>
       </c>
-      <c r="L117">
+      <c r="L117" s="5">
         <v>335000</v>
       </c>
       <c r="M117" t="s">
@@ -12372,40 +12387,40 @@
       </c>
     </row>
     <row r="118" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
+      <c r="A118" s="5" t="s">
         <v>878</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C118" t="s">
+      <c r="C118" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="D118" t="s">
+      <c r="D118" s="5" t="s">
         <v>879</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E118" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F118">
+      <c r="F118" s="5">
         <v>11524</v>
       </c>
-      <c r="G118" t="s">
+      <c r="G118" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H118" t="s">
+      <c r="H118" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I118" t="s">
+      <c r="I118" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J118" t="s">
+      <c r="J118" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="K118">
+      <c r="K118" s="5">
         <v>2009</v>
       </c>
-      <c r="L118">
+      <c r="L118" s="5">
         <v>245000</v>
       </c>
       <c r="M118" t="s">
@@ -12451,40 +12466,40 @@
       </c>
     </row>
     <row r="119" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
+      <c r="A119" s="5" t="s">
         <v>875</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C119" t="s">
+      <c r="C119" s="5" t="s">
         <v>869</v>
       </c>
-      <c r="D119" t="s">
+      <c r="D119" s="5" t="s">
         <v>876</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E119" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="F119">
+      <c r="F119" s="5">
         <v>11524</v>
       </c>
-      <c r="G119" t="s">
+      <c r="G119" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H119" t="s">
+      <c r="H119" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I119" t="s">
+      <c r="I119" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J119" t="s">
+      <c r="J119" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="K119">
+      <c r="K119" s="5">
         <v>2009</v>
       </c>
-      <c r="L119">
+      <c r="L119" s="5">
         <v>253000</v>
       </c>
       <c r="M119" t="s">
@@ -12530,40 +12545,40 @@
       </c>
     </row>
     <row r="120" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
+      <c r="A120" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="D120" t="s">
+      <c r="D120" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E120" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="F120">
+      <c r="F120" s="5">
         <v>57008</v>
       </c>
-      <c r="G120" t="s">
+      <c r="G120" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H120" t="s">
+      <c r="H120" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I120" t="s">
+      <c r="I120" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="J120" t="s">
+      <c r="J120" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="K120">
+      <c r="K120" s="5">
         <v>2005</v>
       </c>
-      <c r="L120">
+      <c r="L120" s="5">
         <v>100000</v>
       </c>
       <c r="M120" t="s">
@@ -12609,40 +12624,40 @@
       </c>
     </row>
     <row r="121" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
+      <c r="A121" s="5" t="s">
         <v>765</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="5" t="s">
         <v>766</v>
       </c>
-      <c r="D121" t="s">
+      <c r="D121" s="5" t="s">
         <v>767</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E121" s="5" t="s">
         <v>768</v>
       </c>
-      <c r="F121">
+      <c r="F121" s="5">
         <v>56626</v>
       </c>
-      <c r="G121" t="s">
+      <c r="G121" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H121" t="s">
+      <c r="H121" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I121" t="s">
+      <c r="I121" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="J121" t="s">
+      <c r="J121" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="K121">
+      <c r="K121" s="5">
         <v>2005</v>
       </c>
-      <c r="L121">
+      <c r="L121" s="5">
         <v>87000</v>
       </c>
       <c r="M121" t="s">
@@ -12688,40 +12703,40 @@
       </c>
     </row>
     <row r="122" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+      <c r="A122" s="5" t="s">
         <v>808</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C122" t="s">
+      <c r="C122" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="D122" t="s">
+      <c r="D122" s="5" t="s">
         <v>810</v>
       </c>
-      <c r="E122" t="s">
+      <c r="E122" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="F122">
+      <c r="F122" s="5">
         <v>10440</v>
       </c>
-      <c r="G122" t="s">
+      <c r="G122" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H122" t="s">
+      <c r="H122" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I122" t="s">
+      <c r="I122" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="J122" t="s">
+      <c r="J122" s="5" t="s">
         <v>812</v>
       </c>
-      <c r="K122">
+      <c r="K122" s="5">
         <v>2007</v>
       </c>
-      <c r="L122">
+      <c r="L122" s="5">
         <v>161000</v>
       </c>
       <c r="M122" t="s">
@@ -12767,40 +12782,40 @@
       </c>
     </row>
     <row r="123" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A123" t="s">
+      <c r="A123" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="5" t="s">
         <v>608</v>
       </c>
-      <c r="D123" t="s">
+      <c r="D123" s="5" t="s">
         <v>609</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E123" s="5" t="s">
         <v>610</v>
       </c>
-      <c r="F123">
+      <c r="F123" s="5">
         <v>15351</v>
       </c>
-      <c r="G123" t="s">
+      <c r="G123" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H123" t="s">
+      <c r="H123" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="I123" t="s">
+      <c r="I123" s="5" t="s">
         <v>611</v>
       </c>
-      <c r="J123" t="s">
+      <c r="J123" s="5" t="s">
         <v>612</v>
       </c>
-      <c r="K123">
+      <c r="K123" s="5">
         <v>1999</v>
       </c>
-      <c r="L123">
+      <c r="L123" s="5">
         <v>356000</v>
       </c>
       <c r="M123" t="s">
@@ -12846,40 +12861,40 @@
       </c>
     </row>
     <row r="124" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A124" t="s">
+      <c r="A124" s="5" t="s">
         <v>751</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="5" t="s">
         <v>752</v>
       </c>
-      <c r="D124" t="s">
+      <c r="D124" s="5" t="s">
         <v>753</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E124" s="5" t="s">
         <v>754</v>
       </c>
-      <c r="F124">
+      <c r="F124" s="5">
         <v>57006</v>
       </c>
-      <c r="G124" t="s">
+      <c r="G124" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H124" t="s">
+      <c r="H124" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I124" t="s">
+      <c r="I124" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="J124" t="s">
+      <c r="J124" s="5" t="s">
         <v>755</v>
       </c>
-      <c r="K124">
+      <c r="K124" s="5">
         <v>2005</v>
       </c>
-      <c r="L124">
+      <c r="L124" s="5">
         <v>49000</v>
       </c>
       <c r="M124" t="s">
@@ -12925,40 +12940,40 @@
       </c>
     </row>
     <row r="125" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A125" t="s">
+      <c r="A125" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C125" s="5" t="s">
         <v>801</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D125" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E125" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="F125">
+      <c r="F125" s="5">
         <v>57200</v>
       </c>
-      <c r="G125" t="s">
+      <c r="G125" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="H125" t="s">
+      <c r="H125" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="I125" t="s">
+      <c r="I125" s="5" t="s">
         <v>804</v>
       </c>
-      <c r="J125" t="s">
+      <c r="J125" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="K125">
+      <c r="K125" s="5">
         <v>2006</v>
       </c>
-      <c r="L125">
+      <c r="L125" s="5">
         <v>85000</v>
       </c>
       <c r="M125" t="s">
